--- a/inspecao_completa.xlsx
+++ b/inspecao_completa.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="497">
   <si>
     <t>issue_key</t>
   </si>
@@ -123,12 +131,6 @@
 # Defaults to -1 to disable.
 # disk_usage_percentage_failure_threshold: -1
 {code}</t>
-  </si>
-  <si>
-    <t>CASSANDRA-1154</t>
-  </si>
-  <si>
-    <t>basic, single node indexing against one indexexpression</t>
   </si>
   <si>
     <t>CASSANDRA-1072</t>
@@ -342,12 +344,12 @@
     <t>Refactor and modernize the storage engine</t>
   </si>
   <si>
-    <t>The current storage engine (which for this ticket I'll loosely define as "the code implementing the read/write path") is suffering from old age. One of the main problem is that the only structure it deals with is the cell, which completely ignores the more high level CQL structure that groups cell into (CQL) rows.
-This leads to many inefficiencies, like the fact that during a reads we have to group cells multiple times (to count on replica, then to count on the coordinator, then to produce the CQL resultset) because we forget about the grouping right away each time (so lots of useless cell names comparisons in particular). But outside inefficiencies, having to manually recreate the CQL structure every time we need it for something is hindering new features and makes the code more complex that it should be.
-Said storage engine also has tons of technical debt. To pick an example, the fact that during range queries we update {{SliceQueryFilter.count}} is pretty hacky and error prone. Or the overly complex ways {{AbstractQueryPager}} has to go into to simply "remove the last query result".
-So I want to bite the bullet and modernize this storage engine. I propose to do 2 main things:
- # Make the storage engine more aware of the CQL structure. In practice, instead of having partitions be a simple iterable map of cells, it should be an iterable list of row (each being itself composed of per-column cells, though obviously not exactly the same kind of cell we have today).
- # Make the engine more iterative. What I mean here is that in the read path, we end up reading all cells in memory (we put them in a ColumnFamily object), but there is really no reason to. If instead we were working with iterators all the way through, we could get to a point where we're basically transferring data from disk to the network, and we should be able to reduce GC substantially.
+    <t>The current storage engine (which for this ticket I'll loosely define as "the code implementing the read/write path") is suffering from old age. One of the main problem is that the only structure it deals with is the cell, which completely ignores the more high level CQL structure that groups cell into (CQL) rows.
+This leads to many inefficiencies, like the fact that during a reads we have to group cells multiple times (to count on replica, then to count on the coordinator, then to produce the CQL resultset) because we forget about the grouping right away each time (so lots of useless cell names comparisons in particular). But outside inefficiencies, having to manually recreate the CQL structure every time we need it for something is hindering new features and makes the code more complex that it should be.
+Said storage engine also has tons of technical debt. To pick an example, the fact that during range queries we update {{SliceQueryFilter.count}} is pretty hacky and error prone. Or the overly complex ways {{AbstractQueryPager}} has to go into to simply "remove the last query result".
+So I want to bite the bullet and modernize this storage engine. I propose to do 2 main things:
+ # Make the storage engine more aware of the CQL structure. In practice, instead of having partitions be a simple iterable map of cells, it should be an iterable list of row (each being itself composed of per-column cells, though obviously not exactly the same kind of cell we have today).
+ # Make the engine more iterative. What I mean here is that in the read path, we end up reading all cells in memory (we put them in a ColumnFamily object), but there is really no reason to. If instead we were working with iterators all the way through, we could get to a point where we're basically transferring data from disk to the network, and we should be able to reduce GC substantially.
 Please note that such refactor should provide some performance improvements right off the bat but it's not its primary goal either. Its primary goal is to simplify the storage engine and adds abstraction that are better suited to further optimizations.</t>
   </si>
   <si>
@@ -492,8 +494,8 @@
     <t>Allow using custom script for chronicle queue BinLog archival</t>
   </si>
   <si>
-    <t>It would be nice to allow the user to configure an archival script that will be executed in {{BinLog.onReleased(cycle, file)}} for every deleted bin log, just as we do in {{CommitLogArchiver}}. The script should be able to copy the released file to an external location or do whatever the author hand in mind. Deleting the log file should be delegated to the script as well.
-See CASSANDRA-13983, CASSANDRA-12151 for use cases.
+    <t>It would be nice to allow the user to configure an archival script that will be executed in {{BinLog.onReleased(cycle, file)}} for every deleted bin log, just as we do in {{CommitLogArchiver}}. The script should be able to copy the released file to an external location or do whatever the author hand in mind. Deleting the log file should be delegated to the script as well.
+See CASSANDRA-13983, CASSANDRA-12151 for use cases.
  </t>
   </si>
   <si>
@@ -503,8 +505,8 @@
     <t>Extend maximum expiration date</t>
   </si>
   <si>
-    <t>The maximum expiration timestamp that can be represented by the storage engine is
-2038-01-19T03:14:06+00:00 due to the encoding of {{localExpirationTime}} as an int32.
+    <t>The maximum expiration timestamp that can be represented by the storage engine is
+2038-01-19T03:14:06+00:00 due to the encoding of {{localExpirationTime}} as an int32.
 On CASSANDRA-14092 we added an overflow policy which rejects requests with expiration above the maximum date as a temporary measure, but we should remove this limitation by updating the storage engine to support at least the maximum allowed TTL of 20 years.</t>
   </si>
   <si>
@@ -514,7 +516,7 @@
     <t>Improve system table handling when losing a disk when using JBOD</t>
   </si>
   <si>
-    <t>We should improve the way we handle disk failures when losing a disk in a JBOD setup
+    <t>We should improve the way we handle disk failures when losing a disk in a JBOD setup
  One way could be to pin the system tables to a special data directory.</t>
   </si>
   <si>
@@ -524,13 +526,13 @@
     <t>Deserialize merkle trees off-heap</t>
   </si>
   <si>
-    <t>CASSANDRA-14096 made the first step to address the heavy on-heap footprint of merkle trees on repair coordinators - by reducing the time frame over which they are referenced, and by more intelligently limiting depth of the trees based on available heap size.
-That alone improves GC profile and prevents OOMs, but doesn’t address the issue entirely. The coordinator still must hold all the trees on heap at once until it’s done diffing them with each other, which has a negative effect, and, by reducing depth, we lose precision and thus cause more overstreaming than before.
-One way to improve the situation further is to build on CASSANDRA-14096 and move the trees entirely off-heap. This is a trivial endeavor, given that we are dealing with what should be full binary trees (though in practice aren’t quite, yet). This JIRA makes the first step towards there - by moving just deserialisation off-heap, leaving construction on the replicas on-heap still.
-Additionally, the proposed patch fixes the issue of replica coordinators sending merkle trees to itself over loopback, costing us a ser/deser loop per tree.
-Please note that there is more room for improvement here, and depending on 4.0 timeline those improvements may or may not land in time. To name a few:
-- with some minor modifications to init(), we can make sure that no matter the range, the tree is *always* perfectly full; this would allow us to get rid of child pointers in inner nodes, as child node addresses will be trivially calculatable given fixed size of nodes
-- the trees can be easily constructed off-heap so long as you run init() to pre-size the tree to find out how large a buffer you need
+    <t>CASSANDRA-14096 made the first step to address the heavy on-heap footprint of merkle trees on repair coordinators - by reducing the time frame over which they are referenced, and by more intelligently limiting depth of the trees based on available heap size.
+That alone improves GC profile and prevents OOMs, but doesn’t address the issue entirely. The coordinator still must hold all the trees on heap at once until it’s done diffing them with each other, which has a negative effect, and, by reducing depth, we lose precision and thus cause more overstreaming than before.
+One way to improve the situation further is to build on CASSANDRA-14096 and move the trees entirely off-heap. This is a trivial endeavor, given that we are dealing with what should be full binary trees (though in practice aren’t quite, yet). This JIRA makes the first step towards there - by moving just deserialisation off-heap, leaving construction on the replicas on-heap still.
+Additionally, the proposed patch fixes the issue of replica coordinators sending merkle trees to itself over loopback, costing us a ser/deser loop per tree.
+Please note that there is more room for improvement here, and depending on 4.0 timeline those improvements may or may not land in time. To name a few:
+- with some minor modifications to init(), we can make sure that no matter the range, the tree is *always* perfectly full; this would allow us to get rid of child pointers in inner nodes, as child node addresses will be trivially calculatable given fixed size of nodes
+- the trees can be easily constructed off-heap so long as you run init() to pre-size the tree to find out how large a buffer you need
 - on-wire format doesn’t need to stream inner nodes, only leaves, and, really, only the hashes of the leaves</t>
   </si>
   <si>
@@ -540,69 +542,69 @@
     <t>Add ability to track state in repair</t>
   </si>
   <si>
-    <t xml:space="preserve">To enhance the visibility in repair, we should expose internal state via virtual tables; the state should include coordinator as well as participant state (validation, sync, etc.)
-I propose the following tables:
-repairs - high level summary of the global state of repair; this should be called on the coordinator.
-{code:sql}
-CREATE TABLE repairs (
-  id uuid,
-  keyspace_name text,
-  table_names frozen&lt;list&lt;text&gt;&gt;,
-  ranges frozen&lt;list&lt;text&gt;&gt;,
-  coordinator text,
-  participants frozen&lt;list&lt;text&gt;&gt;,
-  state text,
-  progress_percentage float,
-  last_updated_at_millis bigint,
-  duration_micro bigint,
-  failure_cause text,
-  PRIMARY KEY ( (id) )
-)
-{code}
-repair_tasks - represents RepairJob and participants state.  This will show if validations are running on participants and the progress they are making; this should be called on the coordinator.
-{code:sql}
-CREATE TABLE repair_tasks (
-  id uuid,
-  session_id uuid,
-  keyspace_name text,
-  table_name text,
-  ranges frozen&lt;list&lt;text&gt;&gt;,
-  coordinator text,
-  participant text,
-  state text,
-  state_description text,
-  progress_percentage float, -- between 0.0 and 100.0
-  last_updated_at_millis bigint,
-  duration_micro bigint,
-  failure_cause text,
-  PRIMARY KEY ( (id), session_id, table_name, participant )
-)
-{code}
-repair_validations - shows the state of the validation task and updated periodically while validation is running; this should be called on the participants.
-{code:sql}
-CREATE TABLE repair_validations (
-  id uuid,
-  session_id uuid,
-  ranges frozen&lt;list&lt;text&gt;&gt;,
-  keyspace_name text,
-  table_name text,
-  initiator text,
-  state text,
-  progress_percentage float,
-  queue_duration_ms bigint,
-  runtime_duration_ms bigint,
-  total_duration_ms bigint,
-  estimated_partitions bigint,
-  partitions_processed bigint,
-  estimated_total_bytes bigint,
-  failure_cause text,
-  PRIMARY KEY ( (id), session_id, table_name )
-)
-{code}
-The main reason for exposing virtual tables rather than exposing through durable tables is to make sure what is exposed is accurate.  In cases of write failures or node failures, the durable tables could become in-accurate and could add edge cases where the repair is not running but the tables say it is; by relying on repair's internal in-memory bookkeeping, these problems go away.
-This jira does not try to solve the following:
-1) repair resiliency - there are edge cases where repair hits an error and runs forever (at least from nodetool's perspective).
-2) repair stream tracking - I have not learned the streaming side yet and what I see is multiple implementations exist, so seems like high scope.  My hope is to punt from this jira and tackle separately.
+    <t xml:space="preserve">To enhance the visibility in repair, we should expose internal state via virtual tables; the state should include coordinator as well as participant state (validation, sync, etc.)
+I propose the following tables:
+repairs - high level summary of the global state of repair; this should be called on the coordinator.
+{code:sql}
+CREATE TABLE repairs (
+  id uuid,
+  keyspace_name text,
+  table_names frozen&lt;list&lt;text&gt;&gt;,
+  ranges frozen&lt;list&lt;text&gt;&gt;,
+  coordinator text,
+  participants frozen&lt;list&lt;text&gt;&gt;,
+  state text,
+  progress_percentage float,
+  last_updated_at_millis bigint,
+  duration_micro bigint,
+  failure_cause text,
+  PRIMARY KEY ( (id) )
+)
+{code}
+repair_tasks - represents RepairJob and participants state.  This will show if validations are running on participants and the progress they are making; this should be called on the coordinator.
+{code:sql}
+CREATE TABLE repair_tasks (
+  id uuid,
+  session_id uuid,
+  keyspace_name text,
+  table_name text,
+  ranges frozen&lt;list&lt;text&gt;&gt;,
+  coordinator text,
+  participant text,
+  state text,
+  state_description text,
+  progress_percentage float, -- between 0.0 and 100.0
+  last_updated_at_millis bigint,
+  duration_micro bigint,
+  failure_cause text,
+  PRIMARY KEY ( (id), session_id, table_name, participant )
+)
+{code}
+repair_validations - shows the state of the validation task and updated periodically while validation is running; this should be called on the participants.
+{code:sql}
+CREATE TABLE repair_validations (
+  id uuid,
+  session_id uuid,
+  ranges frozen&lt;list&lt;text&gt;&gt;,
+  keyspace_name text,
+  table_name text,
+  initiator text,
+  state text,
+  progress_percentage float,
+  queue_duration_ms bigint,
+  runtime_duration_ms bigint,
+  total_duration_ms bigint,
+  estimated_partitions bigint,
+  partitions_processed bigint,
+  estimated_total_bytes bigint,
+  failure_cause text,
+  PRIMARY KEY ( (id), session_id, table_name )
+)
+{code}
+The main reason for exposing virtual tables rather than exposing through durable tables is to make sure what is exposed is accurate.  In cases of write failures or node failures, the durable tables could become in-accurate and could add edge cases where the repair is not running but the tables say it is; by relying on repair's internal in-memory bookkeeping, these problems go away.
+This jira does not try to solve the following:
+1) repair resiliency - there are edge cases where repair hits an error and runs forever (at least from nodetool's perspective).
+2) repair stream tracking - I have not learned the streaming side yet and what I see is multiple implementations exist, so seems like high scope.  My hope is to punt from this jira and tackle separately.
 </t>
   </si>
   <si>
@@ -621,7 +623,7 @@
     <t>Improve performance when calculating StreamTasks with optimised streaming</t>
   </si>
   <si>
-    <t>The way stream tasks are calculated currently is quite inefficient, improve that.
+    <t>The way stream tasks are calculated currently is quite inefficient, improve that.
 Also, we currently try to distribute the streaming nodes evenly, this creates many more sstables than necessary - instead we should try to stream everything from a single peer, this should reduce the number of sstables created on the out-of-sync node.</t>
   </si>
   <si>
@@ -649,9 +651,9 @@
     <t>CEP-11: Memtable API implementation</t>
   </si>
   <si>
-    <t>Pluggable memtable API as described in [CEP-11|https://cwiki.apache.org/confluence/display/CASSANDRA/CEP-11%3A+Pluggable+memtable+implementations].
-Initial version is already available in [this branch|https://github.com/datastax/cassandra/tree/memtable-api], and needs to be updated to the changes in trunk. Two additional features suggested by CEP reviewers are also to be implemented:
- * Sharding support: extending the memtable owner interface to supply suitable shard boundaries that split the owned token space and are in agreement with disk boundaries.
+    <t>Pluggable memtable API as described in [CEP-11|https://cwiki.apache.org/confluence/display/CASSANDRA/CEP-11%3A+Pluggable+memtable+implementations].
+Initial version is already available in [this branch|https://github.com/datastax/cassandra/tree/memtable-api], and needs to be updated to the changes in trunk. Two additional features suggested by CEP reviewers are also to be implemented:
+ * Sharding support: extending the memtable owner interface to supply suitable shard boundaries that split the owned token space and are in agreement with disk boundaries.
  * Shared read API with sstables: defining a common interface for reading partitions from memtables and sstables; this is to include filters to avoid unnecessary copying.</t>
   </si>
   <si>
@@ -661,9 +663,9 @@
     <t>Blocking Concurrency Primitives</t>
   </si>
   <si>
-    <t xml:space="preserve">To support CEP-10 it is necessary to support alternative implementations of the blocking concurrency primitives we use on the project. At the same time, the project is very inconsistent in its usage of these APIs, so this work includes a number of improvements to the coherency of the codebase. 
-This ticket introduces new abstractions and standardises old ones, migrating all blocking concurrency operations besides Futures returned by Executors to these new APIs. This includes a migration of SimpleCondition to a new Conditioninterface, new CountDownLatch and Semaphore interfaces, and new static factory methods for creating these objects (as well as WaitQueue) that can be intercepted by byte weaving. Additionally the internal Netty Future implementation is improved to support more general use (though this is only fully realised in a later ticket), OpOrder is improved to more easily support mocking WaitQueue.
-Finally we standardise the propagation of InterruptedExecption, with the new UncheckedInterruptedException, so that simulations may be terminated cleanly.
+    <t xml:space="preserve">To support CEP-10 it is necessary to support alternative implementations of the blocking concurrency primitives we use on the project. At the same time, the project is very inconsistent in its usage of these APIs, so this work includes a number of improvements to the coherency of the codebase. 
+This ticket introduces new abstractions and standardises old ones, migrating all blocking concurrency operations besides Futures returned by Executors to these new APIs. This includes a migration of SimpleCondition to a new Conditioninterface, new CountDownLatch and Semaphore interfaces, and new static factory methods for creating these objects (as well as WaitQueue) that can be intercepted by byte weaving. Additionally the internal Netty Future implementation is improved to support more general use (though this is only fully realised in a later ticket), OpOrder is improved to more easily support mocking WaitQueue.
+Finally we standardise the propagation of InterruptedExecption, with the new UncheckedInterruptedException, so that simulations may be terminated cleanly.
 </t>
   </si>
   <si>
@@ -673,13 +675,13 @@
     <t>Implement Virtual Tables for Auth Caches</t>
   </si>
   <si>
-    <t>{{NodeTool}} commands for Auth Caches invalidation were implemented as a part of CASSANDRA-16404 ticket. While discussing that ticket it was agreed that there is a need to develop the same kind of functionality through Vitrual Tables. Unfortunately, VT did not have {{TRUNCATE}} and {{DELETE}} support. And CASSANDRA-16806 was created for that reason. Once it is completed, further work can be started.
-The goal of this ticket is to create VTs for the following caches:
- * {{CredentialsCache}}
- * {{JmxPermissionsCache}}
- * {{NetworkPermissionsCache}}
- * {{PermissionsCache}}
- * {{RolesCache}}
+    <t>{{NodeTool}} commands for Auth Caches invalidation were implemented as a part of CASSANDRA-16404 ticket. While discussing that ticket it was agreed that there is a need to develop the same kind of functionality through Vitrual Tables. Unfortunately, VT did not have {{TRUNCATE}} and {{DELETE}} support. And CASSANDRA-16806 was created for that reason. Once it is completed, further work can be started.
+The goal of this ticket is to create VTs for the following caches:
+ * {{CredentialsCache}}
+ * {{JmxPermissionsCache}}
+ * {{NetworkPermissionsCache}}
+ * {{PermissionsCache}}
+ * {{RolesCache}}
 The VTs should support reading from and modification of the in the Auth Caches.</t>
   </si>
   <si>
@@ -689,7 +691,7 @@
     <t>CEP-19: Trie memtable implementation</t>
   </si>
   <si>
-    <t>Trie-based memtable implementation as described in CEP-19, built on top of CASSANDRA-17034 and CASSANDRA-6936.
+    <t>Trie-based memtable implementation as described in CEP-19, built on top of CASSANDRA-17034 and CASSANDRA-6936.
 The implementation is available in this [branch|https://github.com/blambov/cassandra/tree/CASSANDRA-17240].</t>
   </si>
   <si>
@@ -699,25 +701,25 @@
     <t>Allow to attach native masking functions to table columns</t>
   </si>
   <si>
-    <t>Allow to attach the native masking functions added by CASSANDRA-17941 to table columns, as defined by [CEP-20|https://cwiki.apache.org/confluence/display/CASSANDRA/CEP-20%3A+Dynamic+Data+Masking]. 
-{{CREATE TABLE}} statements would look like:
-{code}
-&gt; CREATE TABLE patients (
-      id timeuuid PRIMARY KEY,
-      name text MASKED WITH partial(2, 1),
-      birth date MASKED WITH default()
-      );
-&gt; INSERT INTO patients(id, name, birth) VALUES (now(), 'alice', '1982-12-21);
-&gt; SELECT name, birth FROM patients;
- name    | birth
----------+------------
- alXXXXe | 1900-01-01
-{code}
-{{ALTER TABLE}} statements would look like:
-{code}
-&gt; ALTER TABLE patients ALTER name MASKED WITH partial(2, 1);
-&gt; ALTER TABLE patients ALTER name WITHOUT MASK;
-{code}
+    <t>Allow to attach the native masking functions added by CASSANDRA-17941 to table columns, as defined by [CEP-20|https://cwiki.apache.org/confluence/display/CASSANDRA/CEP-20%3A+Dynamic+Data+Masking]. 
+{{CREATE TABLE}} statements would look like:
+{code}
+&gt; CREATE TABLE patients (
+      id timeuuid PRIMARY KEY,
+      name text MASKED WITH partial(2, 1),
+      birth date MASKED WITH default()
+      );
+&gt; INSERT INTO patients(id, name, birth) VALUES (now(), 'alice', '1982-12-21);
+&gt; SELECT name, birth FROM patients;
+ name    | birth
+---------+------------
+ alXXXXe | 1900-01-01
+{code}
+{{ALTER TABLE}} statements would look like:
+{code}
+&gt; ALTER TABLE patients ALTER name MASKED WITH partial(2, 1);
+&gt; ALTER TABLE patients ALTER name WITHOUT MASK;
+{code}
 It won't be possible to use masked columns in the WHERE and IF clauses of SELECT and UPDATE statements.</t>
   </si>
   <si>
@@ -727,14 +729,14 @@
     <t>Add feature flag for dynamic data masking</t>
   </si>
   <si>
-    <t>Dynamic data masking ([CEP-20|https://cwiki.apache.org/confluence/display/CASSANDRA/CEP-20%3A+Dynamic+Data+Masking]) is a new feature, so it will need a feature flag in {{cassandra.yaml}}. Something like:
-{code}
-# If enabled, dynamic data masking allows to attach CQL masking functions to the columns of a table.
-# Users without the UNMASK permission will see an obscured version of the values of the columns with an attached mask.
-# If dynamic data masking is disabled it won't be allowed to create new column masks, although it will still be possible
-# to drop any previously existing masks. Also, any existing mask will be ignored at query time, so all users will see
-# the clear values of the masked columns.
-dynamic_data_masking_enabled: false
+    <t>Dynamic data masking ([CEP-20|https://cwiki.apache.org/confluence/display/CASSANDRA/CEP-20%3A+Dynamic+Data+Masking]) is a new feature, so it will need a feature flag in {{cassandra.yaml}}. Something like:
+{code}
+# If enabled, dynamic data masking allows to attach CQL masking functions to the columns of a table.
+# Users without the UNMASK permission will see an obscured version of the values of the columns with an attached mask.
+# If dynamic data masking is disabled it won't be allowed to create new column masks, although it will still be possible
+# to drop any previously existing masks. Also, any existing mask will be ignored at query time, so all users will see
+# the clear values of the masked columns.
+dynamic_data_masking_enabled: false
 {code}</t>
   </si>
   <si>
@@ -1136,12 +1138,6 @@
 Before compression, we would have zero-copy of data and could respond directly from the page-cache.
 It would be useful to have some kind of Chunk cache that could speed up this process for hot data, possibly off heap.
 </t>
-  </si>
-  <si>
-    <t>CASSANDRA-5657</t>
-  </si>
-  <si>
-    <t>Upgrade metrics lib and remove deprecated metrics</t>
   </si>
   <si>
     <t>CASSANDRA-6477</t>
@@ -1864,15 +1860,6 @@
 I suggest we reuse the framing protocol recently implemented for internode messaging in CASSANDRA-15066 to the extent that its logic can be borrowed, and that we do it before native protocol v5 graduates from beta. See https://github.com/apache/cassandra/blob/trunk/src/java/org/apache/cassandra/net/FrameDecoderCrc.java and https://github.com/apache/cassandra/blob/trunk/src/java/org/apache/cassandra/net/FrameDecoderLZ4.java.</t>
   </si>
   <si>
-    <t>CASSANDRA-16064</t>
-  </si>
-  <si>
-    <t>Add test which validates that Message serializedSize(version) == serialize(out, version).length</t>
-  </si>
-  <si>
-    <t>In 4.0 we require serializedSize(version) == serialize(out, version).length for correctness in post40 message format as we write it into the message header.  Given that this is a strong requirement for correct deserialization of the message, we should have tests which help enforce this property.</t>
-  </si>
-  <si>
     <t>CASSANDRA-15861</t>
   </si>
   <si>
@@ -2086,15 +2073,6 @@
 This is an extension of the existing work to add warnings/aborts to large partitions (CASSANDRA-16850), with the core difference is that this applies locally rather than at the coordinator.</t>
   </si>
   <si>
-    <t>CASSANDRA-17390</t>
-  </si>
-  <si>
-    <t>Expose streaming as a vtable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASSANDRA-15399 is exposing repair state as a vtable, but repair relies on streaming so needs streaming table as well.  </t>
-  </si>
-  <si>
     <t>CASSANDRA-18123</t>
   </si>
   <si>
@@ -2254,12 +2232,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>CASSANDRA-139</t>
-  </si>
-  <si>
-    <t>thrift API should use lists instead of colon-delimited strings to specify column path</t>
-  </si>
-  <si>
     <t>CASSANDRA-111</t>
   </si>
   <si>
@@ -2379,41 +2351,19 @@
 Unfortunately, I found given the fact we use MessageDigest everywhere --  switching out the hashing function to something like adler128 or murmur3_128 (for example) -- which don't ship with the JDK --  wasn't straight forward.
 The goal of this ticket is to propose switching out usages of MessageDigest directly in favor of Hasher from Guava. This means going forward we can change a single line of code to switch the hashing algorithm being used (assuming there is an implementation in Guava).</t>
   </si>
-  <si>
-    <t>CASSANDRA-11115</t>
-  </si>
-  <si>
-    <t>Thrift removal</t>
-  </si>
-  <si>
-    <t>Thrift removal [has been announced for 4.0|http://mail-archives.apache.org/mod_mbox/cassandra-user/201601.mbox/%3CCALdd-zgAgnLDu3pQBd6wp0jB0X73QjDr9PhPXMMO+gQ+2E5WcQ@mail.gmail.com%3E]. This ticket is meant to serve as a general task for that removal, but also to track issue related to that, either things that we should do in 3.x to make that removal as smooth as possible, or sub-tasks that it makes sense to separate.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -2488,58 +2438,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2665,7 +2655,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2674,7 +2664,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2683,7 +2673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2757,7 +2747,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2765,7 +2755,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2784,7 +2774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2814,7 +2804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2840,7 +2830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2866,7 +2856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2892,7 +2882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2918,7 +2908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2944,7 +2934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2970,7 +2960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2996,7 +2986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3022,7 +3012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3035,9 +3025,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3052,7 +3048,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -3060,7 +3056,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3079,7 +3075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3105,7 +3101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3131,7 +3127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3157,7 +3153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3183,7 +3179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3209,7 +3205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3235,7 +3231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3261,7 +3257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3287,7 +3283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3313,7 +3309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3326,9 +3322,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3342,7 +3344,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3361,7 +3363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3391,7 +3393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3417,7 +3419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3443,7 +3445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3469,7 +3471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3495,7 +3497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3521,7 +3523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3547,7 +3549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3573,7 +3575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3599,7 +3601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3612,2921 +3614,2839 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.8906" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.3281" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.7734" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="16" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="3">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="94" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="94" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="120" customHeight="1">
-      <c r="A4" t="s" s="4">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="276" customHeight="1">
-      <c r="A5" t="s" s="4">
+      <c r="E4" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="276" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="4">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="328" customHeight="1">
-      <c r="A6" t="s" s="4">
+      <c r="E5" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="328" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="250" customHeight="1">
-      <c r="A7" t="s" s="4">
+      <c r="E6" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="250" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="4">
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="4">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="55" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="55" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" ht="432" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s" s="4">
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="107" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="81" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="94" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="42" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="94" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="211" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="146" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="211" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="68" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="146" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="68" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="55" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="159" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="42" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s" s="4">
+      <c r="C38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="94" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="81" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="133" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="42" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="315" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s" s="4">
+      <c r="C43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="120" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="68" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="42" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="42" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="42" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="198" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="107" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="107" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="42" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="120" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="393" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="42" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="42" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="42" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="94" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="94" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="94" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="42" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="68" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="42" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="29" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="120" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="237" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="120" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s" s="4">
+      <c r="C74" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="55" customHeight="1">
+      <c r="A77" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="42" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="42" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="55" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="42" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="120" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="68" customHeight="1">
-      <c r="A14" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" ht="107" customHeight="1">
-      <c r="A15" t="s" s="4">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="81" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="94" customHeight="1">
-      <c r="A17" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" ht="536" customHeight="1">
-      <c r="A18" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="42" customHeight="1">
-      <c r="A19" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="94" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="211" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" ht="146" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" ht="42" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" ht="42" customHeight="1">
-      <c r="A24" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s" s="4">
+      <c r="C85" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="94" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="68" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="94" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="94" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="55" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="237" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="133" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="68" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="354" customHeight="1">
+      <c r="A95" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s" s="4">
+      <c r="C95" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="185" customHeight="1">
+      <c r="A97" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="159" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="172" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" ht="211" customHeight="1">
-      <c r="A26" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="E26" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" ht="68" customHeight="1">
-      <c r="A27" t="s" s="4">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" ht="146" customHeight="1">
-      <c r="A28" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="B28" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s" s="4">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="E28" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" ht="796" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" ht="796" customHeight="1">
-      <c r="A30" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" ht="68" customHeight="1">
-      <c r="A31" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="E31" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" ht="55" customHeight="1">
-      <c r="A32" t="s" s="4">
-        <v>96</v>
-      </c>
-      <c r="B32" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" ht="42" customHeight="1">
-      <c r="A33" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" ht="159" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s" s="4">
-        <v>103</v>
-      </c>
-      <c r="D34" t="s" s="5">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" ht="991" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="D35" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s" s="4">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s" s="4">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" ht="42" customHeight="1">
-      <c r="A37" t="s" s="4">
-        <v>111</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s" s="5">
-        <v>113</v>
-      </c>
-      <c r="E37" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="4">
-        <v>114</v>
-      </c>
-      <c r="B38" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s" s="4">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s" s="4">
-        <v>116</v>
-      </c>
-      <c r="E38" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="4">
-        <v>117</v>
-      </c>
-      <c r="B39" t="s" s="4">
+      <c r="C100" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="94" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" t="s" s="4">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s" s="4">
-        <v>119</v>
-      </c>
-      <c r="E39" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" ht="94" customHeight="1">
-      <c r="A40" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="B40" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s" s="4">
-        <v>121</v>
-      </c>
-      <c r="D40" t="s" s="5">
-        <v>122</v>
-      </c>
-      <c r="E40" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" ht="81" customHeight="1">
-      <c r="A41" t="s" s="4">
-        <v>123</v>
-      </c>
-      <c r="B41" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="D41" t="s" s="5">
-        <v>125</v>
-      </c>
-      <c r="E41" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" ht="133" customHeight="1">
-      <c r="A42" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="B42" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="D42" t="s" s="5">
-        <v>128</v>
-      </c>
-      <c r="E42" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" ht="42" customHeight="1">
-      <c r="A43" t="s" s="4">
-        <v>129</v>
-      </c>
-      <c r="B43" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s" s="4">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s" s="5">
-        <v>131</v>
-      </c>
-      <c r="E43" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" ht="315" customHeight="1">
-      <c r="A44" t="s" s="4">
-        <v>132</v>
-      </c>
-      <c r="B44" t="s" s="4">
+      <c r="C101" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="42" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="42" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C44" t="s" s="4">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s" s="5">
-        <v>134</v>
-      </c>
-      <c r="E44" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" ht="120" customHeight="1">
-      <c r="A45" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="B45" t="s" s="4">
+      <c r="C105" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" customHeight="1">
+      <c r="A106" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="42" customHeight="1">
+      <c r="A108" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="146" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="120" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="D45" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="E45" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="4">
-        <v>138</v>
-      </c>
-      <c r="B46" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s" s="4">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s" s="4">
-        <v>140</v>
-      </c>
-      <c r="E46" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" ht="68" customHeight="1">
-      <c r="A47" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="D47" t="s" s="5">
-        <v>143</v>
-      </c>
-      <c r="E47" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" ht="42" customHeight="1">
-      <c r="A48" t="s" s="4">
-        <v>144</v>
-      </c>
-      <c r="B48" t="s" s="4">
+      <c r="C110" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="42" customHeight="1">
+      <c r="A111" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" customHeight="1">
+      <c r="A112" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="42" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16" customHeight="1">
+      <c r="A114" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C48" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s" s="5">
+      <c r="C114" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="68" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="68" customHeight="1">
+      <c r="A117" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E48" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" ht="42" customHeight="1">
-      <c r="A49" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="B49" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="D49" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="E49" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" ht="42" customHeight="1">
-      <c r="A50" t="s" s="4">
-        <v>150</v>
-      </c>
-      <c r="B50" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="D50" t="s" s="5">
+      <c r="D117" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="68" customHeight="1">
+      <c r="A118" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="68" customHeight="1">
+      <c r="A119" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="198" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="224" customHeight="1">
+      <c r="A121" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="120" customHeight="1">
+      <c r="A122" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="146" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="224" customHeight="1">
+      <c r="A124" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="172" customHeight="1">
+      <c r="A125" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16" customHeight="1">
+      <c r="A126" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="120" customHeight="1">
+      <c r="A127" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="380" customHeight="1">
+      <c r="A128" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16" customHeight="1">
+      <c r="A130" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="120" customHeight="1">
+      <c r="A132" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E50" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" ht="198" customHeight="1">
-      <c r="A51" t="s" s="4">
-        <v>153</v>
-      </c>
-      <c r="B51" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C51" t="s" s="4">
-        <v>155</v>
-      </c>
-      <c r="D51" t="s" s="5">
-        <v>156</v>
-      </c>
-      <c r="E51" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" ht="107" customHeight="1">
-      <c r="A52" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="B52" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s" s="4">
-        <v>158</v>
-      </c>
-      <c r="D52" t="s" s="5">
-        <v>159</v>
-      </c>
-      <c r="E52" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" ht="107" customHeight="1">
-      <c r="A53" t="s" s="4">
-        <v>160</v>
-      </c>
-      <c r="B53" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s" s="4">
-        <v>161</v>
-      </c>
-      <c r="D53" t="s" s="5">
-        <v>162</v>
-      </c>
-      <c r="E53" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="B54" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C54" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="D54" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="E54" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" ht="42" customHeight="1">
-      <c r="A55" t="s" s="4">
-        <v>166</v>
-      </c>
-      <c r="B55" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="D55" t="s" s="5">
-        <v>168</v>
-      </c>
-      <c r="E55" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" ht="120" customHeight="1">
-      <c r="A56" t="s" s="4">
-        <v>169</v>
-      </c>
-      <c r="B56" t="s" s="4">
+      <c r="C132" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A133" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="172" customHeight="1">
+      <c r="A134" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="42" customHeight="1">
+      <c r="A135" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="328" customHeight="1">
+      <c r="A136" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C56" t="s" s="4">
-        <v>170</v>
-      </c>
-      <c r="D56" t="s" s="5">
-        <v>171</v>
-      </c>
-      <c r="E56" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" t="s" s="4">
-        <v>172</v>
-      </c>
-      <c r="B57" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="D57" t="s" s="4">
-        <v>174</v>
-      </c>
-      <c r="E57" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" ht="393" customHeight="1">
-      <c r="A58" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="B58" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="D58" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="E58" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" ht="42" customHeight="1">
-      <c r="A59" t="s" s="4">
-        <v>178</v>
-      </c>
-      <c r="B59" t="s" s="4">
+      <c r="C136" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="68" customHeight="1">
+      <c r="A137" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="94" customHeight="1">
+      <c r="A138" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16" customHeight="1">
+      <c r="A139" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16" customHeight="1">
+      <c r="A140" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="146" customHeight="1">
+      <c r="A141" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="68" customHeight="1">
+      <c r="A142" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>179</v>
-      </c>
-      <c r="D59" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="E59" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" ht="42" customHeight="1">
-      <c r="A60" t="s" s="4">
-        <v>181</v>
-      </c>
-      <c r="B60" t="s" s="4">
+      <c r="C142" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A143" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="224" customHeight="1">
+      <c r="A144" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C60" t="s" s="4">
-        <v>182</v>
-      </c>
-      <c r="D60" t="s" s="5">
-        <v>183</v>
-      </c>
-      <c r="E60" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" ht="42" customHeight="1">
-      <c r="A61" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="B61" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="D61" t="s" s="5">
-        <v>186</v>
-      </c>
-      <c r="E61" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" ht="94" customHeight="1">
-      <c r="A62" t="s" s="4">
-        <v>187</v>
-      </c>
-      <c r="B62" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s" s="4">
-        <v>188</v>
-      </c>
-      <c r="D62" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="E62" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" ht="94" customHeight="1">
-      <c r="A63" t="s" s="4">
-        <v>190</v>
-      </c>
-      <c r="B63" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="D63" t="s" s="5">
-        <v>192</v>
-      </c>
-      <c r="E63" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" ht="94" customHeight="1">
-      <c r="A64" t="s" s="4">
-        <v>193</v>
-      </c>
-      <c r="B64" t="s" s="4">
+      <c r="C144" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="146" customHeight="1">
+      <c r="A145" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="120" customHeight="1">
+      <c r="A146" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="276" customHeight="1">
+      <c r="A147" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="406" customHeight="1">
+      <c r="A148" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="68" customHeight="1">
+      <c r="A149" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C64" t="s" s="4">
-        <v>194</v>
-      </c>
-      <c r="D64" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="E64" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" ht="42" customHeight="1">
-      <c r="A65" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="B65" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C65" t="s" s="4">
-        <v>197</v>
-      </c>
-      <c r="D65" t="s" s="5">
-        <v>198</v>
-      </c>
-      <c r="E65" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" ht="68" customHeight="1">
-      <c r="A66" t="s" s="4">
-        <v>199</v>
-      </c>
-      <c r="B66" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s" s="4">
-        <v>200</v>
-      </c>
-      <c r="D66" t="s" s="5">
-        <v>201</v>
-      </c>
-      <c r="E66" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" t="s" s="4">
-        <v>202</v>
-      </c>
-      <c r="B67" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s" s="4">
-        <v>203</v>
-      </c>
-      <c r="D67" t="s" s="4">
-        <v>204</v>
-      </c>
-      <c r="E67" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" ht="458" customHeight="1">
-      <c r="A68" t="s" s="4">
-        <v>205</v>
-      </c>
-      <c r="B68" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s" s="4">
-        <v>206</v>
-      </c>
-      <c r="D68" t="s" s="5">
-        <v>207</v>
-      </c>
-      <c r="E68" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" t="s" s="4">
-        <v>208</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s" s="4">
-        <v>209</v>
-      </c>
-      <c r="D69" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="E69" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" ht="42" customHeight="1">
-      <c r="A70" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s" s="4">
-        <v>212</v>
-      </c>
-      <c r="D70" t="s" s="5">
-        <v>213</v>
-      </c>
-      <c r="E70" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" ht="29" customHeight="1">
-      <c r="A71" t="s" s="4">
-        <v>214</v>
-      </c>
-      <c r="B71" t="s" s="4">
+      <c r="C149" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="198" customHeight="1">
+      <c r="A150" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>215</v>
-      </c>
-      <c r="D71" t="s" s="5">
-        <v>216</v>
-      </c>
-      <c r="E71" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" ht="16" customHeight="1">
-      <c r="A72" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>218</v>
-      </c>
-      <c r="D72" t="s" s="4">
-        <v>219</v>
-      </c>
-      <c r="E72" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" ht="120" customHeight="1">
-      <c r="A73" t="s" s="4">
-        <v>220</v>
-      </c>
-      <c r="B73" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s" s="4">
-        <v>221</v>
-      </c>
-      <c r="D73" t="s" s="5">
-        <v>222</v>
-      </c>
-      <c r="E73" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" ht="237" customHeight="1">
-      <c r="A74" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="B74" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s" s="4">
-        <v>224</v>
-      </c>
-      <c r="D74" t="s" s="5">
-        <v>225</v>
-      </c>
-      <c r="E74" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" ht="120" customHeight="1">
-      <c r="A75" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="B75" t="s" s="4">
+      <c r="C150" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="120" customHeight="1">
+      <c r="A151" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="68" customHeight="1">
+      <c r="A152" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="68" customHeight="1">
+      <c r="A153" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="68" customHeight="1">
+      <c r="A154" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="94" customHeight="1">
+      <c r="A155" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C75" t="s" s="4">
-        <v>227</v>
-      </c>
-      <c r="D75" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="E75" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" ht="16" customHeight="1">
-      <c r="A76" t="s" s="4">
-        <v>229</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s" s="4">
-        <v>230</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" ht="16" customHeight="1">
-      <c r="A77" t="s" s="4">
-        <v>231</v>
-      </c>
-      <c r="B77" t="s" s="4">
+      <c r="C155" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="68" customHeight="1">
+      <c r="A156" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="42" customHeight="1">
+      <c r="A157" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16" customHeight="1">
+      <c r="A158" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16" customHeight="1">
+      <c r="A159" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>232</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>233</v>
-      </c>
-      <c r="E77" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" ht="16" customHeight="1">
-      <c r="A78" t="s" s="4">
-        <v>234</v>
-      </c>
-      <c r="B78" t="s" s="4">
+      <c r="C159" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="198" customHeight="1">
+      <c r="A160" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="29" customHeight="1">
+      <c r="A161" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16" customHeight="1">
+      <c r="A162" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16" customHeight="1">
+      <c r="A163" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C78" t="s" s="4">
-        <v>235</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>236</v>
-      </c>
-      <c r="E78" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" ht="55" customHeight="1">
-      <c r="A79" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s" s="4">
-        <v>238</v>
-      </c>
-      <c r="D79" t="s" s="5">
-        <v>239</v>
-      </c>
-      <c r="E79" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" ht="16" customHeight="1">
-      <c r="A80" t="s" s="4">
-        <v>240</v>
-      </c>
-      <c r="B80" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s" s="4">
-        <v>241</v>
-      </c>
-      <c r="D80" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="E80" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" ht="42" customHeight="1">
-      <c r="A81" t="s" s="4">
-        <v>243</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s" s="4">
-        <v>244</v>
-      </c>
-      <c r="D81" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="E81" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" ht="42" customHeight="1">
-      <c r="A82" t="s" s="4">
-        <v>246</v>
-      </c>
-      <c r="B82" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="D82" t="s" s="5">
-        <v>248</v>
-      </c>
-      <c r="E82" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" ht="16" customHeight="1">
-      <c r="A83" t="s" s="4">
-        <v>249</v>
-      </c>
-      <c r="B83" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s" s="4">
-        <v>250</v>
-      </c>
-      <c r="D83" t="s" s="4">
-        <v>251</v>
-      </c>
-      <c r="E83" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" ht="1017" customHeight="1">
-      <c r="A84" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="B84" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C84" t="s" s="4">
-        <v>253</v>
-      </c>
-      <c r="D84" t="s" s="5">
-        <v>254</v>
-      </c>
-      <c r="E84" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" ht="55" customHeight="1">
-      <c r="A85" t="s" s="4">
-        <v>255</v>
-      </c>
-      <c r="B85" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C85" t="s" s="4">
-        <v>256</v>
-      </c>
-      <c r="D85" t="s" s="5">
-        <v>257</v>
-      </c>
-      <c r="E85" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" ht="42" customHeight="1">
-      <c r="A86" t="s" s="4">
-        <v>258</v>
-      </c>
-      <c r="B86" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s" s="4">
-        <v>259</v>
-      </c>
-      <c r="D86" t="s" s="5">
-        <v>260</v>
-      </c>
-      <c r="E86" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" ht="120" customHeight="1">
-      <c r="A87" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="B87" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C87" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="D87" t="s" s="5">
-        <v>263</v>
-      </c>
-      <c r="E87" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" ht="94" customHeight="1">
-      <c r="A88" t="s" s="4">
-        <v>264</v>
-      </c>
-      <c r="B88" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C88" t="s" s="4">
-        <v>265</v>
-      </c>
-      <c r="D88" t="s" s="5">
-        <v>266</v>
-      </c>
-      <c r="E88" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" ht="68" customHeight="1">
-      <c r="A89" t="s" s="4">
-        <v>267</v>
-      </c>
-      <c r="B89" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C89" t="s" s="4">
-        <v>268</v>
-      </c>
-      <c r="D89" t="s" s="5">
-        <v>269</v>
-      </c>
-      <c r="E89" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" ht="94" customHeight="1">
-      <c r="A90" t="s" s="4">
-        <v>270</v>
-      </c>
-      <c r="B90" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s" s="4">
-        <v>271</v>
-      </c>
-      <c r="D90" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="E90" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" ht="94" customHeight="1">
-      <c r="A91" t="s" s="4">
-        <v>273</v>
-      </c>
-      <c r="B91" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s" s="4">
-        <v>274</v>
-      </c>
-      <c r="D91" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="E91" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" ht="55" customHeight="1">
-      <c r="A92" t="s" s="4">
-        <v>276</v>
-      </c>
-      <c r="B92" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s" s="4">
-        <v>277</v>
-      </c>
-      <c r="D92" t="s" s="5">
-        <v>278</v>
-      </c>
-      <c r="E92" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" ht="237" customHeight="1">
-      <c r="A93" t="s" s="4">
-        <v>279</v>
-      </c>
-      <c r="B93" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>280</v>
-      </c>
-      <c r="D93" t="s" s="5">
-        <v>281</v>
-      </c>
-      <c r="E93" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" ht="133" customHeight="1">
-      <c r="A94" t="s" s="4">
-        <v>282</v>
-      </c>
-      <c r="B94" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s" s="4">
-        <v>283</v>
-      </c>
-      <c r="D94" t="s" s="5">
-        <v>284</v>
-      </c>
-      <c r="E94" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" ht="68" customHeight="1">
-      <c r="A95" t="s" s="4">
-        <v>285</v>
-      </c>
-      <c r="B95" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C95" t="s" s="4">
-        <v>286</v>
-      </c>
-      <c r="D95" t="s" s="5">
-        <v>287</v>
-      </c>
-      <c r="E95" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" ht="16" customHeight="1">
-      <c r="A96" t="s" s="4">
-        <v>288</v>
-      </c>
-      <c r="B96" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s" s="4">
-        <v>289</v>
-      </c>
-      <c r="D96" t="s" s="4">
-        <v>290</v>
-      </c>
-      <c r="E96" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" ht="354" customHeight="1">
-      <c r="A97" t="s" s="4">
-        <v>291</v>
-      </c>
-      <c r="B97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C97" t="s" s="4">
-        <v>292</v>
-      </c>
-      <c r="D97" t="s" s="5">
-        <v>293</v>
-      </c>
-      <c r="E97" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" ht="16" customHeight="1">
-      <c r="A98" t="s" s="4">
-        <v>294</v>
-      </c>
-      <c r="B98" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C98" t="s" s="4">
-        <v>295</v>
-      </c>
-      <c r="D98" t="s" s="4">
-        <v>296</v>
-      </c>
-      <c r="E98" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" ht="185" customHeight="1">
-      <c r="A99" t="s" s="4">
-        <v>297</v>
-      </c>
-      <c r="B99" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s" s="4">
-        <v>298</v>
-      </c>
-      <c r="D99" t="s" s="5">
-        <v>299</v>
-      </c>
-      <c r="E99" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" ht="159" customHeight="1">
-      <c r="A100" t="s" s="4">
-        <v>300</v>
-      </c>
-      <c r="B100" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s" s="4">
-        <v>301</v>
-      </c>
-      <c r="D100" t="s" s="5">
-        <v>302</v>
-      </c>
-      <c r="E100" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" ht="16" customHeight="1">
-      <c r="A101" t="s" s="4">
-        <v>303</v>
-      </c>
-      <c r="B101" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C101" t="s" s="4">
-        <v>304</v>
-      </c>
-      <c r="D101" t="s" s="4">
-        <v>305</v>
-      </c>
-      <c r="E101" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" ht="172" customHeight="1">
-      <c r="A102" t="s" s="4">
-        <v>306</v>
-      </c>
-      <c r="B102" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C102" t="s" s="4">
-        <v>307</v>
-      </c>
-      <c r="D102" t="s" s="5">
-        <v>308</v>
-      </c>
-      <c r="E102" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" ht="94" customHeight="1">
-      <c r="A103" t="s" s="4">
-        <v>309</v>
-      </c>
-      <c r="B103" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C103" t="s" s="4">
-        <v>310</v>
-      </c>
-      <c r="D103" t="s" s="5">
-        <v>311</v>
-      </c>
-      <c r="E103" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" ht="42" customHeight="1">
-      <c r="A104" t="s" s="4">
-        <v>312</v>
-      </c>
-      <c r="B104" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s" s="4">
-        <v>313</v>
-      </c>
-      <c r="D104" t="s" s="5">
-        <v>314</v>
-      </c>
-      <c r="E104" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" ht="16" customHeight="1">
-      <c r="A105" t="s" s="4">
-        <v>315</v>
-      </c>
-      <c r="B105" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s" s="4">
-        <v>316</v>
-      </c>
-      <c r="D105" t="s" s="4">
-        <v>317</v>
-      </c>
-      <c r="E105" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" ht="16" customHeight="1">
-      <c r="A106" t="s" s="4">
-        <v>318</v>
-      </c>
-      <c r="B106" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s" s="4">
-        <v>319</v>
-      </c>
-      <c r="D106" t="s" s="4">
-        <v>320</v>
-      </c>
-      <c r="E106" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" ht="42" customHeight="1">
-      <c r="A107" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="B107" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C107" t="s" s="4">
-        <v>322</v>
-      </c>
-      <c r="D107" t="s" s="5">
-        <v>323</v>
-      </c>
-      <c r="E107" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" ht="16" customHeight="1">
-      <c r="A108" t="s" s="4">
-        <v>324</v>
-      </c>
-      <c r="B108" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C108" t="s" s="4">
-        <v>325</v>
-      </c>
-      <c r="D108" t="s" s="4">
-        <v>326</v>
-      </c>
-      <c r="E108" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" ht="16" customHeight="1">
-      <c r="A109" t="s" s="4">
-        <v>327</v>
-      </c>
-      <c r="B109" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C109" t="s" s="4">
-        <v>328</v>
-      </c>
-      <c r="D109" t="s" s="4">
-        <v>329</v>
-      </c>
-      <c r="E109" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" ht="42" customHeight="1">
-      <c r="A110" t="s" s="4">
-        <v>330</v>
-      </c>
-      <c r="B110" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C110" t="s" s="4">
-        <v>331</v>
-      </c>
-      <c r="D110" t="s" s="5">
-        <v>332</v>
-      </c>
-      <c r="E110" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" ht="146" customHeight="1">
-      <c r="A111" t="s" s="4">
-        <v>333</v>
-      </c>
-      <c r="B111" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C111" t="s" s="4">
-        <v>334</v>
-      </c>
-      <c r="D111" t="s" s="5">
-        <v>335</v>
-      </c>
-      <c r="E111" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" ht="120" customHeight="1">
-      <c r="A112" t="s" s="4">
-        <v>336</v>
-      </c>
-      <c r="B112" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C112" t="s" s="4">
-        <v>337</v>
-      </c>
-      <c r="D112" t="s" s="5">
-        <v>338</v>
-      </c>
-      <c r="E112" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" ht="42" customHeight="1">
-      <c r="A113" t="s" s="4">
-        <v>339</v>
-      </c>
-      <c r="B113" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C113" t="s" s="4">
-        <v>340</v>
-      </c>
-      <c r="D113" t="s" s="5">
-        <v>341</v>
-      </c>
-      <c r="E113" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" ht="16" customHeight="1">
-      <c r="A114" t="s" s="4">
-        <v>342</v>
-      </c>
-      <c r="B114" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C114" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="D114" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="E114" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" ht="42" customHeight="1">
-      <c r="A115" t="s" s="4">
-        <v>345</v>
-      </c>
-      <c r="B115" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C115" t="s" s="4">
-        <v>346</v>
-      </c>
-      <c r="D115" t="s" s="5">
-        <v>347</v>
-      </c>
-      <c r="E115" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" ht="16" customHeight="1">
-      <c r="A116" t="s" s="4">
-        <v>348</v>
-      </c>
-      <c r="B116" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C116" t="s" s="4">
-        <v>349</v>
-      </c>
-      <c r="D116" t="s" s="4">
-        <v>350</v>
-      </c>
-      <c r="E116" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" ht="510" customHeight="1">
-      <c r="A117" t="s" s="4">
-        <v>351</v>
-      </c>
-      <c r="B117" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s" s="4">
-        <v>352</v>
-      </c>
-      <c r="D117" t="s" s="5">
-        <v>353</v>
-      </c>
-      <c r="E117" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" ht="68" customHeight="1">
-      <c r="A118" t="s" s="4">
-        <v>354</v>
-      </c>
-      <c r="B118" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C118" t="s" s="4">
-        <v>355</v>
-      </c>
-      <c r="D118" t="s" s="5">
-        <v>356</v>
-      </c>
-      <c r="E118" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" ht="68" customHeight="1">
-      <c r="A119" t="s" s="4">
-        <v>357</v>
-      </c>
-      <c r="B119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C119" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="D119" t="s" s="5">
-        <v>358</v>
-      </c>
-      <c r="E119" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" ht="68" customHeight="1">
-      <c r="A120" t="s" s="4">
-        <v>359</v>
-      </c>
-      <c r="B120" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C120" t="s" s="4">
-        <v>360</v>
-      </c>
-      <c r="D120" t="s" s="5">
-        <v>361</v>
-      </c>
-      <c r="E120" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" ht="68" customHeight="1">
-      <c r="A121" t="s" s="4">
-        <v>362</v>
-      </c>
-      <c r="B121" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C121" t="s" s="4">
-        <v>363</v>
-      </c>
-      <c r="D121" t="s" s="5">
-        <v>364</v>
-      </c>
-      <c r="E121" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" ht="198" customHeight="1">
-      <c r="A122" t="s" s="4">
-        <v>365</v>
-      </c>
-      <c r="B122" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C122" t="s" s="4">
-        <v>366</v>
-      </c>
-      <c r="D122" t="s" s="5">
-        <v>367</v>
-      </c>
-      <c r="E122" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" ht="224" customHeight="1">
-      <c r="A123" t="s" s="4">
-        <v>368</v>
-      </c>
-      <c r="B123" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C123" t="s" s="4">
-        <v>369</v>
-      </c>
-      <c r="D123" t="s" s="5">
-        <v>370</v>
-      </c>
-      <c r="E123" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" ht="120" customHeight="1">
-      <c r="A124" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="B124" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C124" t="s" s="4">
-        <v>372</v>
-      </c>
-      <c r="D124" t="s" s="5">
-        <v>373</v>
-      </c>
-      <c r="E124" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" ht="146" customHeight="1">
-      <c r="A125" t="s" s="4">
-        <v>374</v>
-      </c>
-      <c r="B125" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C125" t="s" s="4">
-        <v>375</v>
-      </c>
-      <c r="D125" t="s" s="5">
-        <v>376</v>
-      </c>
-      <c r="E125" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" ht="224" customHeight="1">
-      <c r="A126" t="s" s="4">
-        <v>377</v>
-      </c>
-      <c r="B126" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C126" t="s" s="4">
-        <v>378</v>
-      </c>
-      <c r="D126" t="s" s="5">
-        <v>379</v>
-      </c>
-      <c r="E126" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" ht="172" customHeight="1">
-      <c r="A127" t="s" s="4">
-        <v>380</v>
-      </c>
-      <c r="B127" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C127" t="s" s="4">
-        <v>381</v>
-      </c>
-      <c r="D127" t="s" s="5">
-        <v>382</v>
-      </c>
-      <c r="E127" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" ht="16" customHeight="1">
-      <c r="A128" t="s" s="4">
-        <v>383</v>
-      </c>
-      <c r="B128" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="D128" t="s" s="4">
-        <v>385</v>
-      </c>
-      <c r="E128" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" ht="120" customHeight="1">
-      <c r="A129" t="s" s="4">
-        <v>386</v>
-      </c>
-      <c r="B129" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s" s="4">
-        <v>387</v>
-      </c>
-      <c r="D129" t="s" s="5">
-        <v>388</v>
-      </c>
-      <c r="E129" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" ht="380" customHeight="1">
-      <c r="A130" t="s" s="4">
-        <v>389</v>
-      </c>
-      <c r="B130" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C130" t="s" s="4">
-        <v>390</v>
-      </c>
-      <c r="D130" t="s" s="5">
-        <v>391</v>
-      </c>
-      <c r="E130" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" ht="16" customHeight="1">
-      <c r="A131" t="s" s="4">
-        <v>392</v>
-      </c>
-      <c r="B131" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C131" t="s" s="4">
-        <v>393</v>
-      </c>
-      <c r="D131" t="s" s="4">
-        <v>394</v>
-      </c>
-      <c r="E131" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" ht="1030" customHeight="1">
-      <c r="A132" t="s" s="4">
-        <v>395</v>
-      </c>
-      <c r="B132" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C132" t="s" s="4">
-        <v>396</v>
-      </c>
-      <c r="D132" t="s" s="5">
-        <v>397</v>
-      </c>
-      <c r="E132" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" ht="16" customHeight="1">
-      <c r="A133" t="s" s="4">
-        <v>398</v>
-      </c>
-      <c r="B133" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C133" t="s" s="4">
-        <v>399</v>
-      </c>
-      <c r="D133" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="E133" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" ht="536" customHeight="1">
-      <c r="A134" t="s" s="4">
-        <v>401</v>
-      </c>
-      <c r="B134" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C134" t="s" s="4">
-        <v>402</v>
-      </c>
-      <c r="D134" t="s" s="5">
-        <v>403</v>
-      </c>
-      <c r="E134" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" ht="120" customHeight="1">
-      <c r="A135" t="s" s="4">
-        <v>404</v>
-      </c>
-      <c r="B135" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C135" t="s" s="4">
-        <v>405</v>
-      </c>
-      <c r="D135" t="s" s="5">
-        <v>406</v>
-      </c>
-      <c r="E135" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" ht="666" customHeight="1">
-      <c r="A136" t="s" s="4">
-        <v>407</v>
-      </c>
-      <c r="B136" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C136" t="s" s="4">
-        <v>408</v>
-      </c>
-      <c r="D136" t="s" s="5">
-        <v>409</v>
-      </c>
-      <c r="E136" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" ht="172" customHeight="1">
-      <c r="A137" t="s" s="4">
-        <v>410</v>
-      </c>
-      <c r="B137" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C137" t="s" s="4">
-        <v>411</v>
-      </c>
-      <c r="D137" t="s" s="5">
-        <v>412</v>
-      </c>
-      <c r="E137" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" ht="42" customHeight="1">
-      <c r="A138" t="s" s="4">
-        <v>413</v>
-      </c>
-      <c r="B138" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C138" t="s" s="4">
-        <v>414</v>
-      </c>
-      <c r="D138" t="s" s="5">
-        <v>415</v>
-      </c>
-      <c r="E138" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" ht="328" customHeight="1">
-      <c r="A139" t="s" s="4">
-        <v>416</v>
-      </c>
-      <c r="B139" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C139" t="s" s="4">
-        <v>417</v>
-      </c>
-      <c r="D139" t="s" s="5">
-        <v>418</v>
-      </c>
-      <c r="E139" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" ht="68" customHeight="1">
-      <c r="A140" t="s" s="4">
-        <v>419</v>
-      </c>
-      <c r="B140" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C140" t="s" s="4">
-        <v>420</v>
-      </c>
-      <c r="D140" t="s" s="5">
-        <v>421</v>
-      </c>
-      <c r="E140" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" ht="94" customHeight="1">
-      <c r="A141" t="s" s="4">
-        <v>422</v>
-      </c>
-      <c r="B141" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C141" t="s" s="4">
-        <v>423</v>
-      </c>
-      <c r="D141" t="s" s="5">
-        <v>424</v>
-      </c>
-      <c r="E141" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" ht="16" customHeight="1">
-      <c r="A142" t="s" s="4">
-        <v>425</v>
-      </c>
-      <c r="B142" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C142" t="s" s="4">
-        <v>426</v>
-      </c>
-      <c r="D142" t="s" s="4">
-        <v>427</v>
-      </c>
-      <c r="E142" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" ht="16" customHeight="1">
-      <c r="A143" t="s" s="4">
-        <v>428</v>
-      </c>
-      <c r="B143" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C143" t="s" s="4">
-        <v>429</v>
-      </c>
-      <c r="D143" t="s" s="4">
-        <v>430</v>
-      </c>
-      <c r="E143" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" ht="146" customHeight="1">
-      <c r="A144" t="s" s="4">
-        <v>431</v>
-      </c>
-      <c r="B144" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C144" t="s" s="4">
-        <v>432</v>
-      </c>
-      <c r="D144" t="s" s="5">
-        <v>433</v>
-      </c>
-      <c r="E144" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" ht="68" customHeight="1">
-      <c r="A145" t="s" s="4">
-        <v>434</v>
-      </c>
-      <c r="B145" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C145" t="s" s="4">
-        <v>435</v>
-      </c>
-      <c r="D145" t="s" s="5">
-        <v>436</v>
-      </c>
-      <c r="E145" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" ht="16" customHeight="1">
-      <c r="A146" t="s" s="4">
-        <v>437</v>
-      </c>
-      <c r="B146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s" s="4">
-        <v>438</v>
-      </c>
-      <c r="D146" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="E146" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" ht="484" customHeight="1">
-      <c r="A147" t="s" s="4">
-        <v>440</v>
-      </c>
-      <c r="B147" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C147" t="s" s="4">
-        <v>441</v>
-      </c>
-      <c r="D147" t="s" s="5">
-        <v>442</v>
-      </c>
-      <c r="E147" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" ht="224" customHeight="1">
-      <c r="A148" t="s" s="4">
-        <v>443</v>
-      </c>
-      <c r="B148" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C148" t="s" s="4">
-        <v>444</v>
-      </c>
-      <c r="D148" t="s" s="5">
-        <v>445</v>
-      </c>
-      <c r="E148" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" ht="146" customHeight="1">
-      <c r="A149" t="s" s="4">
-        <v>446</v>
-      </c>
-      <c r="B149" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C149" t="s" s="4">
-        <v>447</v>
-      </c>
-      <c r="D149" t="s" s="5">
-        <v>448</v>
-      </c>
-      <c r="E149" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" ht="120" customHeight="1">
-      <c r="A150" t="s" s="4">
-        <v>449</v>
-      </c>
-      <c r="B150" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C150" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="D150" t="s" s="5">
-        <v>451</v>
-      </c>
-      <c r="E150" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" ht="276" customHeight="1">
-      <c r="A151" t="s" s="4">
-        <v>452</v>
-      </c>
-      <c r="B151" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C151" t="s" s="4">
-        <v>453</v>
-      </c>
-      <c r="D151" t="s" s="5">
-        <v>454</v>
-      </c>
-      <c r="E151" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" ht="406" customHeight="1">
-      <c r="A152" t="s" s="4">
-        <v>455</v>
-      </c>
-      <c r="B152" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C152" t="s" s="4">
-        <v>456</v>
-      </c>
-      <c r="D152" t="s" s="5">
-        <v>457</v>
-      </c>
-      <c r="E152" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" ht="68" customHeight="1">
-      <c r="A153" t="s" s="4">
-        <v>458</v>
-      </c>
-      <c r="B153" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C153" t="s" s="4">
-        <v>459</v>
-      </c>
-      <c r="D153" t="s" s="5">
-        <v>460</v>
-      </c>
-      <c r="E153" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" ht="198" customHeight="1">
-      <c r="A154" t="s" s="4">
-        <v>461</v>
-      </c>
-      <c r="B154" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C154" t="s" s="4">
-        <v>462</v>
-      </c>
-      <c r="D154" t="s" s="5">
+      <c r="C163" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="E154" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" ht="120" customHeight="1">
-      <c r="A155" t="s" s="4">
-        <v>464</v>
-      </c>
-      <c r="B155" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C155" t="s" s="4">
-        <v>465</v>
-      </c>
-      <c r="D155" t="s" s="5">
-        <v>466</v>
-      </c>
-      <c r="E155" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" ht="68" customHeight="1">
-      <c r="A156" t="s" s="4">
-        <v>467</v>
-      </c>
-      <c r="B156" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C156" t="s" s="4">
-        <v>468</v>
-      </c>
-      <c r="D156" t="s" s="5">
-        <v>469</v>
-      </c>
-      <c r="E156" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" ht="68" customHeight="1">
-      <c r="A157" t="s" s="4">
-        <v>470</v>
-      </c>
-      <c r="B157" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C157" t="s" s="4">
-        <v>471</v>
-      </c>
-      <c r="D157" t="s" s="5">
-        <v>472</v>
-      </c>
-      <c r="E157" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="158" ht="16" customHeight="1">
-      <c r="A158" t="s" s="4">
-        <v>474</v>
-      </c>
-      <c r="B158" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C158" t="s" s="4">
-        <v>475</v>
-      </c>
-      <c r="D158" s="6"/>
-      <c r="E158" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="159" ht="68" customHeight="1">
-      <c r="A159" t="s" s="4">
-        <v>476</v>
-      </c>
-      <c r="B159" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C159" t="s" s="4">
-        <v>477</v>
-      </c>
-      <c r="D159" t="s" s="5">
-        <v>478</v>
-      </c>
-      <c r="E159" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="160" ht="94" customHeight="1">
-      <c r="A160" t="s" s="4">
-        <v>479</v>
-      </c>
-      <c r="B160" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C160" t="s" s="4">
-        <v>480</v>
-      </c>
-      <c r="D160" t="s" s="5">
-        <v>481</v>
-      </c>
-      <c r="E160" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="161" ht="68" customHeight="1">
-      <c r="A161" t="s" s="4">
-        <v>482</v>
-      </c>
-      <c r="B161" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C161" t="s" s="4">
-        <v>483</v>
-      </c>
-      <c r="D161" t="s" s="5">
-        <v>484</v>
-      </c>
-      <c r="E161" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="162" ht="42" customHeight="1">
-      <c r="A162" t="s" s="4">
-        <v>485</v>
-      </c>
-      <c r="B162" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C162" t="s" s="4">
-        <v>486</v>
-      </c>
-      <c r="D162" t="s" s="5">
-        <v>487</v>
-      </c>
-      <c r="E162" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="163" ht="16" customHeight="1">
-      <c r="A163" t="s" s="4">
-        <v>488</v>
-      </c>
-      <c r="B163" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C163" t="s" s="4">
-        <v>489</v>
-      </c>
-      <c r="D163" t="s" s="4">
-        <v>490</v>
-      </c>
-      <c r="E163" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="164" ht="16" customHeight="1">
-      <c r="A164" t="s" s="4">
-        <v>491</v>
-      </c>
-      <c r="B164" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C164" t="s" s="4">
-        <v>492</v>
-      </c>
-      <c r="D164" t="s" s="4">
-        <v>493</v>
-      </c>
-      <c r="E164" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="165" ht="198" customHeight="1">
-      <c r="A165" t="s" s="4">
+    </row>
+    <row r="164" spans="1:5" ht="68" customHeight="1">
+      <c r="A164" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B165" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C165" t="s" s="4">
+      <c r="B164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D165" t="s" s="5">
+      <c r="D164" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="E165" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="166" ht="29" customHeight="1">
-      <c r="A166" t="s" s="4">
-        <v>497</v>
-      </c>
-      <c r="B166" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C166" t="s" s="4">
-        <v>498</v>
-      </c>
-      <c r="D166" t="s" s="5">
-        <v>499</v>
-      </c>
-      <c r="E166" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="167" ht="16" customHeight="1">
-      <c r="A167" t="s" s="4">
-        <v>500</v>
-      </c>
-      <c r="B167" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C167" t="s" s="4">
-        <v>501</v>
-      </c>
-      <c r="D167" t="s" s="4">
-        <v>502</v>
-      </c>
-      <c r="E167" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="168" ht="16" customHeight="1">
-      <c r="A168" t="s" s="4">
-        <v>503</v>
-      </c>
-      <c r="B168" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C168" t="s" s="4">
-        <v>504</v>
-      </c>
-      <c r="D168" t="s" s="4">
-        <v>505</v>
-      </c>
-      <c r="E168" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="169" ht="68" customHeight="1">
-      <c r="A169" t="s" s="4">
-        <v>506</v>
-      </c>
-      <c r="B169" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C169" t="s" s="4">
-        <v>507</v>
-      </c>
-      <c r="D169" t="s" s="5">
-        <v>508</v>
-      </c>
-      <c r="E169" t="s" s="4">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="170" ht="16" customHeight="1">
-      <c r="A170" t="s" s="4">
-        <v>509</v>
-      </c>
-      <c r="B170" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C170" t="s" s="4">
-        <v>510</v>
-      </c>
-      <c r="D170" t="s" s="4">
-        <v>511</v>
-      </c>
-      <c r="E170" t="s" s="4">
-        <v>9</v>
+      <c r="E164" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>